--- a/data/income_statement/3digits/total/852_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/852_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>852-Primary education</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>852-Primary education</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1097320.08967</v>
@@ -959,34 +865,39 @@
         <v>1480686.17662</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1815243.00194</v>
+        <v>1817177.54321</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2206617.21528</v>
+        <v>2208740.58328</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2524711.23736</v>
+        <v>2569145.005770001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1546380.22612</v>
+        <v>1567201.58566</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1063460.43126</v>
+        <v>1963394.62518</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>2484726.012060001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3000239.35534</v>
+        <v>3002471.07671</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3617887.34684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3654610.90577</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4456749.074</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1080835.1178</v>
@@ -998,34 +909,39 @@
         <v>1449064.25756</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1780919.66854</v>
+        <v>1782854.20981</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2141620.40122</v>
+        <v>2143743.76922</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2465786.59801</v>
+        <v>2509586.99691</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1517538.12857</v>
+        <v>1537704.33683</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1031937.54726</v>
+        <v>1921848.23407</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>2409787.47198</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2901385.88195</v>
+        <v>2903604.0291</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3502120.39663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3534621.28917</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4344533.073</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>129.51147</v>
@@ -1043,7 +959,7 @@
         <v>21382.00983</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5477.76824</v>
+        <v>5477.768239999999</v>
       </c>
       <c r="I7" s="48" t="n">
         <v>315.51155</v>
@@ -1052,19 +968,24 @@
         <v>495.21333</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>7312.99924</v>
+        <v>7312.999239999999</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>4523.694109999999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>6747.804420000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>9422.213589999999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6872.508</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>16355.4604</v>
@@ -1082,52 +1003,57 @@
         <v>43614.80423</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>53446.87111</v>
+        <v>54080.24062</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>28526.586</v>
+        <v>29181.73728</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>31027.67067</v>
+        <v>41051.17778</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>67625.54084</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>94329.77928</v>
+        <v>94343.3535</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>109019.14579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>110567.40301</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>105343.493</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>30551.89834</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>37367.48979</v>
+        <v>37367.48978999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>41763.24069000001</v>
+        <v>41763.24069</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>52808.50895999999</v>
+        <v>52809.85043</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>67518.72197</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>81981.70362</v>
+        <v>84666.88717</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>85138.45667000001</v>
+        <v>85239.07036</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>25737.68027</v>
+        <v>117193.77498</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>144742.9203</v>
@@ -1136,16 +1062,21 @@
         <v>182310.19186</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>221903.00427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>223098.69653</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>326907.454</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>744.31655</v>
+        <v>744.3165499999999</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>899.7853</v>
@@ -1154,19 +1085,19 @@
         <v>1106.65926</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1729.75194</v>
+        <v>1731.09341</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>2031.90847</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5090.7005</v>
+        <v>5118.348660000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>3013.26952</v>
+        <v>3113.88321</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2914.22918</v>
+        <v>5765.65321</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>6244.93092</v>
@@ -1175,19 +1106,24 @@
         <v>8067.29451</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>8219.897269999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>8609.757369999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>41949.896</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>29121.46116</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>33225.68268999999</v>
+        <v>33225.68269</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>38315.25044</v>
@@ -1199,13 +1135,13 @@
         <v>61167.41568</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>71370.89389000001</v>
+        <v>74028.42928</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>78308.34547</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>17928.41683</v>
+        <v>106533.08751</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>132608.3502</v>
@@ -1214,13 +1150,18 @@
         <v>166470.63553</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>203401.19634</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>204207.0285</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>270113.159</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>686.12063</v>
@@ -1235,10 +1176,10 @@
         <v>3916.73768</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4319.39782</v>
+        <v>4319.397819999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>5520.10923</v>
+        <v>5520.109229999999</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>3816.84168</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>10281.91066</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>14844.399</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1066768.19133</v>
@@ -1271,37 +1217,42 @@
         <v>1438922.93593</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1762434.49298</v>
+        <v>1764367.69278</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2139098.49331</v>
+        <v>2141221.86131</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2442729.53374</v>
+        <v>2484478.1186</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1461241.76945</v>
+        <v>1481962.5153</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1037722.75099</v>
+        <v>1846200.8502</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>2339983.09176</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2817929.16348</v>
+        <v>2820160.88485</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3395984.34257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3431512.20924</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4129841.62</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>816246.1168399999</v>
+        <v>816246.11684</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>895112.94649</v>
@@ -1310,34 +1261,39 @@
         <v>1114510.01984</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1378701.81851</v>
+        <v>1380927.99246</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1698750.40649</v>
+        <v>1700465.63749</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1965830.60226</v>
+        <v>1990449.3279</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1173749.82455</v>
+        <v>1196997.93716</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>849861.8302000001</v>
+        <v>1520126.10327</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1894292.73104</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2402467.02813</v>
+        <v>2404822.63151</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2934028.52337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2971327.7771</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3143470.506</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3922.94897</v>
@@ -1346,7 +1302,7 @@
         <v>6979.63371</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>8546.987879999999</v>
+        <v>8546.987880000001</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>13845.88005</v>
@@ -1358,10 +1314,10 @@
         <v>9454.846390000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>18841.33458</v>
+        <v>19001.53805</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>777.0010500000001</v>
+        <v>13860.57505</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>12127.42688</v>
@@ -1370,13 +1326,18 @@
         <v>31607.70256</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>38604.86326999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>38585.15227</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>25426.643</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>17465.60027</v>
@@ -1388,73 +1349,83 @@
         <v>27266.86887</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>46508.70995999999</v>
+        <v>46638.21979</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>36594.90198</v>
+        <v>36731.46098</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>61476.52548999999</v>
+        <v>62042.88219999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>22497.96095</v>
+        <v>22853.68815</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>40744.45148</v>
+        <v>50346.38565</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>51614.67085</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>66201.80041000001</v>
+        <v>66222.19972</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>98279.15540999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>97720.05564999999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>118449.965</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>793335.0294400001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>870368.0008599999</v>
+        <v>870368.00086</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>1076554.06794</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1315959.52455</v>
+        <v>1318056.18867</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1630072.77722</v>
+        <v>1631651.44922</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1858604.12014</v>
+        <v>1882656.48907</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1128790.24583</v>
+        <v>1151431.33532</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>807212.97493</v>
+        <v>1454729.93452</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1824661.31011</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2296938.02055</v>
+        <v>2299273.22462</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2788328.02617</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2826206.09066</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2995381.123</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1522.53816</v>
@@ -1475,10 +1446,10 @@
         <v>36295.11024</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3620.28319</v>
+        <v>3711.37564</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1127.40274</v>
+        <v>1189.20805</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>5889.3232</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>8816.478519999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>4212.775</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>250522.07449</v>
@@ -1505,34 +1481,39 @@
         <v>324412.91609</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>383732.67447</v>
+        <v>383439.7003200001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>440348.08682</v>
+        <v>440756.22382</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>476898.93148</v>
+        <v>494028.7907000001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>287491.9449000001</v>
+        <v>284964.57814</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>187860.92079</v>
+        <v>326074.7469300001</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>445690.3607200001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>415462.13535</v>
+        <v>415338.25334</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>461955.8192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>460184.43214</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>986371.1139999999</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>158938.84842</v>
@@ -1544,34 +1525,39 @@
         <v>222400.14556</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>252258.97842</v>
+        <v>252267.35238</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>313400.83088</v>
+        <v>313651.59188</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>389493.84174</v>
+        <v>395546.27099</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>279167.1212</v>
+        <v>284066.68488</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>206613.17507</v>
+        <v>341388.4272799999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>399212.01716</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>444929.4729400001</v>
+        <v>446003.86115</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>499366.9087</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>507059.31814</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>533231.822</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>56.12389</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>28.9784</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>21.452</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>11065.46622</v>
@@ -1628,28 +1619,33 @@
         <v>23761.82655</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>39548.12164</v>
+        <v>39904.39603</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>18580.27057</v>
+        <v>18639.40735</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>20604.02747</v>
+        <v>26147.52297</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>32294.84096</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>38284.29362999999</v>
+        <v>38285.18252</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>33320.93034</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>33032.43209</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>36057.024</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>147817.25831</v>
@@ -1661,37 +1657,42 @@
         <v>201819.25622</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>232075.89057</v>
+        <v>232084.26453</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>289639.00433</v>
+        <v>289889.76533</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>349945.05954</v>
+        <v>355641.2144</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>260233.35618</v>
+        <v>265073.78308</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>185288.05119</v>
+        <v>314519.8079</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>366866.81158</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>406642.18773</v>
+        <v>407715.68705</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>466016.99996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>473997.90765</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>497153.346</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>91583.22606999999</v>
+        <v>91583.22607</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>101866.09969</v>
@@ -1700,34 +1701,39 @@
         <v>102012.77053</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>131473.69605</v>
+        <v>131172.34794</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>126947.25594</v>
+        <v>127104.63194</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>87405.08974000001</v>
+        <v>98482.51971000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>8324.823699999999</v>
+        <v>897.8932599999979</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-18752.25428</v>
+        <v>-15313.68035</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>46478.34355999999</v>
+        <v>46478.34356</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-29467.33759</v>
+        <v>-30665.60780999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-37411.08950000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-46874.88600000001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>453139.292</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>24268.8372</v>
@@ -1739,34 +1745,39 @@
         <v>26472.28522</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>51670.06853</v>
+        <v>51681.99814</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>36470.27125</v>
+        <v>36480.65625</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>82219.41666</v>
+        <v>83105.97876</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>67245.83234000001</v>
+        <v>67652.14072999998</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>46211.3953</v>
+        <v>74525.20173999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>87797.02202</v>
+        <v>87797.02201999999</v>
       </c>
       <c r="L25" s="47" t="n">
         <v>134234.43228</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>140245.86693</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>141753.066</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>185375.901</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>390.7859</v>
@@ -1790,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>402.82362</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>5063.804</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>74.97</v>
@@ -1840,35 +1856,40 @@
       <c r="M27" s="48" t="n">
         <v>182</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>13564.22863</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>9635.100989999999</v>
+        <v>9635.100990000001</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>10765.97372</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>14106.66997</v>
+        <v>14110.52057</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>17172.22716</v>
+        <v>17172.52516</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>24289.13678</v>
+        <v>24464.50936</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>20269.99134</v>
+        <v>20441.58585</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>12549.21425</v>
+        <v>22400.32298</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>30403.66215</v>
@@ -1877,13 +1898,18 @@
         <v>35417.81599</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>46068.36254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>46444.99006</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>53898.931</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>175.21817</v>
@@ -1907,7 +1933,7 @@
         <v>64.93594</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>6.77989</v>
+        <v>239.30487</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>43.54878</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>767.7648</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2402.793</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>423.66771</v>
+        <v>423.6677099999999</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>838.5446899999999</v>
@@ -1940,13 +1971,13 @@
         <v>2962.95071</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3290.17292</v>
+        <v>3316.59792</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2222.24967</v>
+        <v>2251.05843</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1296.27238</v>
+        <v>1878.49368</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>3057.58546</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>2658.78469</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>5874.365</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1033.8956</v>
@@ -1973,19 +2009,19 @@
         <v>456.4963</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1084.56802</v>
+        <v>1092.64703</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>814.4035200000001</v>
+        <v>824.4905200000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1236.00611</v>
+        <v>1238.05111</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>1241.43171</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1059.44203</v>
+        <v>1358.84552</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1589.14042</v>
@@ -1994,13 +2030,18 @@
         <v>2128.09932</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1553.39175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1698.21113</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1112.251</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>15400.04815</v>
@@ -2018,13 +2059,13 @@
         <v>6813.42851</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>23772.29347</v>
+        <v>24452.69817</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>21751.03432</v>
+        <v>21925.49024</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>11991.92268</v>
+        <v>22676.62595</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>23185.93835</v>
@@ -2033,13 +2074,18 @@
         <v>52674.02986</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>56383.66001000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>56429.49439</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>79143.482</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>51.62243</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.025</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>-6845.62439</v>
+        <v>-6845.624389999999</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>-2385.62893</v>
@@ -2132,16 +2188,16 @@
         <v>20676.70388</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>8178.020130000001</v>
+        <v>8178.020129999998</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>28725.40242</v>
+        <v>28727.71724</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>21309.01436</v>
+        <v>21340.46356</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>18996.25175</v>
+        <v>25257.2728</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>28890.6074</v>
@@ -2150,16 +2206,21 @@
         <v>38378.40327</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>32631.90314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>33571.82093</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>37460.275</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>34311.75101</v>
+        <v>34311.75101000001</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>16398.0999</v>
@@ -2171,31 +2232,36 @@
         <v>22215.63757</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>31545.86672</v>
+        <v>31592.17272</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>38501.34234</v>
+        <v>39277.24379</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>31570.61338</v>
+        <v>32669.53572</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>19857.16615</v>
+        <v>39487.67013000001</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>56541.96746</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>84744.55675999999</v>
+        <v>84744.55678999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>82462.08243000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>82513.61109999999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>75840.73</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>275.07611</v>
@@ -2219,7 +2285,7 @@
         <v>63.58602</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>96.17172000000001</v>
+        <v>112.45756</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>497.99994</v>
@@ -2228,19 +2294,24 @@
         <v>443.02448</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>549.30118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>549.4824599999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>742.729</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2911.18455</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>5606.01977</v>
+        <v>5606.019770000001</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>5552.613060000001</v>
@@ -2249,16 +2320,16 @@
         <v>6854.99858</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>7646.28808</v>
+        <v>7692.59408</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>9243.696880000001</v>
+        <v>9243.69688</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5104.71159</v>
+        <v>5286.744559999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5532.111430000001</v>
+        <v>8405.04327</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>13012.52819</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>10073.06233</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>13781.302</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>355.69059</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>47.42288000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>19.276</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>20674.59424</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>8830.024350000002</v>
+        <v>8830.02435</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>22297.44278</v>
@@ -2330,13 +2411,13 @@
         <v>22184.96924</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>27035.85805</v>
+        <v>27811.4215</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>25838.02852</v>
+        <v>26756.70834</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>13532.84487</v>
+        <v>30273.48876</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>41821.64596</v>
@@ -2345,13 +2426,18 @@
         <v>72818.39704</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>70115.25373000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>70166.59833000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>58497.977</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.01096</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>4.530609999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>3.527</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>10095.19456</v>
@@ -2447,28 +2543,33 @@
         <v>679.26732</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1378.31565</v>
+        <v>1378.65365</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>537.75014</v>
+        <v>535.95969</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>669.27495</v>
+        <v>669.91736</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1150.19422</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2613.4974</v>
+        <v>2613.49743</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1672.5117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1672.51449</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2795.919</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>27159.57197</v>
@@ -2486,28 +2587,33 @@
         <v>44025.71399</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>67193.54793</v>
+        <v>67942.18637000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>62657.80048999999</v>
+        <v>65212.45667</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>40186.77025</v>
+        <v>78733.18988999999</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>115944.77306</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>147950.24855</v>
+        <v>147961.0502</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>191096.83113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>190179.08819</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>163564.087</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>23184.91333</v>
@@ -2525,28 +2631,33 @@
         <v>40376.2582</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>63075.98646</v>
+        <v>63518.91209000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>55268.43012999999</v>
+        <v>56998.58867</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>35143.15314</v>
+        <v>69860.91878000001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>94233.20437000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>131851.32466</v>
+        <v>131862.12631</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>174190.20608</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>173272.46314</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>149348.312</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3974.65864</v>
@@ -2564,13 +2675,13 @@
         <v>3649.45579</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4117.56147</v>
+        <v>4423.27428</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>7389.37036</v>
+        <v>8213.868</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5043.61711</v>
+        <v>8872.27111</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>21711.56869</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>16906.62505</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>14215.775</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>54380.74029</v>
@@ -2594,37 +2710,42 @@
         <v>80480.19377</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>66439.24324</v>
+        <v>66439.24324000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>128243.60871</v>
+        <v>127954.19021</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>87845.94647999998</v>
+        <v>87967.40148</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>63929.61613</v>
+        <v>74369.06830999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-18657.75783</v>
+        <v>-29331.9584</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-32584.79538</v>
+        <v>-59009.33863</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-38211.37493999999</v>
+        <v>-38211.37494</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-127927.71062</v>
+        <v>-129136.78252</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-170724.13613</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-177814.51929</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>399110.376</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>35863.83253</v>
@@ -2636,34 +2757,39 @@
         <v>27616.82077</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>11901.18996</v>
+        <v>11949.24862</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>45634.35229</v>
+        <v>45702.60129</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>28248.6256</v>
+        <v>28509.53553</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>11964.42568</v>
+        <v>12323.89156</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>19258.00924</v>
+        <v>25262.23412</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>23268.10777</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>32472.29322</v>
+        <v>32545.53893</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>40291.87776</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>40429.01572</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>80475.33</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>49.83726</v>
@@ -2681,16 +2807,16 @@
         <v>135.25338</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>273.9263</v>
+        <v>302.57951</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>267.82976</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>346.32444</v>
+        <v>762.03097</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>721.70408</v>
+        <v>721.7040800000001</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>485.9778</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>540.00923</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>628.417</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>35813.99527</v>
+        <v>35813.99527000001</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>21175.67355</v>
@@ -2714,34 +2845,39 @@
         <v>27406.57841000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>11682.82557</v>
+        <v>11730.88423</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>45499.09891</v>
+        <v>45567.34791</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>27974.6993</v>
+        <v>28206.95602</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>11696.59592</v>
+        <v>12056.0618</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>18911.6848</v>
+        <v>24500.20315</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>22546.40369</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>31986.31542</v>
+        <v>32059.56113</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>39751.86853</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>39889.00649</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>79846.913</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>7240.24478</v>
@@ -2750,37 +2886,42 @@
         <v>8340.67719</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>96426.61072999999</v>
+        <v>96426.61073</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>45233.3931</v>
+        <v>45410.41178</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>22145.32922</v>
+        <v>22174.91922</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>43948.57732</v>
+        <v>44113.66697</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>80093.10342</v>
+        <v>80205.26010000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>33076.34487</v>
+        <v>37825.80276999999</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>39733.79851000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>43974.59765</v>
+        <v>43974.60316</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>78551.78319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>78695.9433</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>37625.518</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>373.90524</v>
@@ -2804,7 +2945,7 @@
         <v>141.74085</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>398.30336</v>
+        <v>485.98693</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>1816.83544</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>224.18099</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>266.187</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>908.23653</v>
@@ -2837,13 +2983,13 @@
         <v>2545.23751</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>724.3006799999999</v>
+        <v>759.3006800000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1035.19539</v>
+        <v>1043.84539</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>630.50364</v>
+        <v>972.41538</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1138.66135</v>
@@ -2852,91 +2998,106 @@
         <v>5133.54153</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1254.81358</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1249.15353</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3722.922</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>5958.10301</v>
+        <v>5958.103010000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7048.32988</v>
+        <v>7048.329880000001</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>94004.27345000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>42383.77415</v>
+        <v>42560.79283000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>17893.18471</v>
+        <v>17922.77471</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>41652.94951999999</v>
+        <v>41783.03917</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>78916.16717999999</v>
+        <v>79019.67386</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>32047.53787</v>
+        <v>36367.40046</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>36778.30172</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>38697.01719</v>
+        <v>38697.0227</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>77072.78862000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>77222.60878</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>33636.409</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>83004.32803999999</v>
+        <v>83004.32804000001</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>93337.37815999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2370.546719999999</v>
+        <v>-2370.546720000003</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>94911.40556999999</v>
+        <v>94493.02705</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>111334.96955</v>
+        <v>111495.08355</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>48229.66441</v>
+        <v>58764.93687000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-86786.43556999999</v>
+        <v>-97213.32694</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-46403.13101</v>
+        <v>-71572.90728</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-54677.06567999999</v>
+        <v>-54677.06568</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-139430.01505</v>
+        <v>-140565.84675</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-208984.04156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-216081.44687</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>441960.188</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>10064.19499</v>
@@ -2954,31 +3115,36 @@
         <v>17283.80118</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>16352.04185</v>
+        <v>16426.96342</v>
       </c>
       <c r="I56" s="47" t="n">
         <v>7895.79345</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>6834.753529999999</v>
+        <v>13398.56379</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>11368.7749</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>16799.03714</v>
+        <v>16842.36293</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>21090.46959</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>21549.18455</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>42158.724</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>72940.13305</v>
+        <v>72940.13305000002</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>80986.57608</v>
@@ -2987,31 +3153,34 @@
         <v>-18100.64705</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>74915.82950000001</v>
+        <v>74497.45097999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>94051.16837</v>
+        <v>94211.28236999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>31877.62256</v>
+        <v>42337.97345</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-94682.22902</v>
+        <v>-105109.12039</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-53237.88454</v>
+        <v>-84971.47107</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-66045.84058</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-156229.05219</v>
+        <v>-157408.20968</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-230074.51115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-237630.63142</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>399801.464</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>369</v>
@@ -3041,31 +3213,34 @@
         <v>426</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>552</v>
+        <v>603</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>756</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>821</v>
+        <v>846</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>914</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>